--- a/test_data/synthetic/UseTax_Claims - Analyzed.xlsx
+++ b/test_data/synthetic/UseTax_Claims - Analyzed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="322">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -160,6 +160,18 @@
     <t>V0020</t>
   </si>
   <si>
+    <t>V0021</t>
+  </si>
+  <si>
+    <t>V0022</t>
+  </si>
+  <si>
+    <t>V0023</t>
+  </si>
+  <si>
+    <t>V0024</t>
+  </si>
+  <si>
     <t>Forest Equipment Co</t>
   </si>
   <si>
@@ -199,6 +211,12 @@
     <t>RIVER ANALYTICS LLC</t>
   </si>
   <si>
+    <t>Northstar Technologies Inc</t>
+  </si>
+  <si>
+    <t>Valley Data Systems</t>
+  </si>
+  <si>
     <t>INV-2024-20001.pdf</t>
   </si>
   <si>
@@ -286,6 +304,18 @@
     <t>PO-4900200009.pdf</t>
   </si>
   <si>
+    <t>PO-Hardware-Tracker.xlsx</t>
+  </si>
+  <si>
+    <t>PO-Software-Summary.xlsx</t>
+  </si>
+  <si>
+    <t>PO-Approval-Email.eml</t>
+  </si>
+  <si>
+    <t>PO-Consulting-Quotation.docx</t>
+  </si>
+  <si>
     <t>INV-2024-20001</t>
   </si>
   <si>
@@ -397,6 +427,12 @@
     <t>4900561894</t>
   </si>
   <si>
+    <t>PO-4900348121</t>
+  </si>
+  <si>
+    <t>Q-73483</t>
+  </si>
+  <si>
     <t>2023-11-08</t>
   </si>
   <si>
@@ -496,6 +532,18 @@
     <t>Technical Consulting, Support Contract, Training Program, Managed Services</t>
   </si>
   <si>
+    <t>IT Equipment (Multi-vendor PO)</t>
+  </si>
+  <si>
+    <t>Software License (Multi-vendor PO)</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Consulting Services</t>
+  </si>
+  <si>
     <t>6x Managed Services - Monthly ($10,618.00 ea), 8x Training Program - On-site ($16,069.00 ea), 9x Technical Consulting - Per Diem ($3,438.00 ea), 3x Support Contract - Annual ($29,589.00 ea)</t>
   </si>
   <si>
@@ -556,6 +604,18 @@
     <t>10x Firewall Appliance ($17,455 ea), 10x Workstation - High Performance ($3,659 ea), 4x Server Rack - 42U ($5,426 ea), 6x Network Switch - 48 Port ($2,234 ea), 1x UPS Battery Backup System ($7,800 ea), 5x Storage Array - 100TB ($17,982 ea)</t>
   </si>
   <si>
+    <t>UPS Battery Backup, Server Rack, System Integration, Storage Array</t>
+  </si>
+  <si>
+    <t>Development Tools, Enterprise License, Firewall, Security Suite, Managed Services</t>
+  </si>
+  <si>
+    <t>Training Program (7), Technical Consulting (8), System Integration Services (9)</t>
+  </si>
+  <si>
+    <t>Telecom services implementation</t>
+  </si>
+  <si>
     <t>INVOICE Forest Equipment Co 800 Industrial Park Minneapolis, MN 55401 Tax ID: 41-9012345 Phone: (612) 555-1000 PLEASE REFER TO YOUR ACCOUNT NO., AND OUR INVOICE AND ORDER NO. IN ALL COMMUNICATIONS REGARDING THIS INVOICE Your Account No.: 0038654299 Invoice No.: INV-2024-20001</t>
   </si>
   <si>
@@ -664,6 +724,18 @@
     <t>Firewall Appliance, Workstation - High Performance, Server Rack - 42U, Network Switch - 48 Port, UPS Battery Backup System, Storage Array - 100TB</t>
   </si>
   <si>
+    <t>Hardware Tracker, Multi-vendor</t>
+  </si>
+  <si>
+    <t>Software Summary, Multi-vendor</t>
+  </si>
+  <si>
+    <t>Training, Consulting, System Integration</t>
+  </si>
+  <si>
+    <t>Consulting Services Proposal</t>
+  </si>
+  <si>
     <t>Seattle, WA</t>
   </si>
   <si>
@@ -694,25 +766,34 @@
     <t>Tangible Personal Property - IT Equipment</t>
   </si>
   <si>
+    <t>Hardware - Firewall Appliance and UPS Battery Backup System</t>
+  </si>
+  <si>
+    <t>IT Services - Security Suite and Development Tools</t>
+  </si>
+  <si>
+    <t>Software License - Database Management and Security Suite</t>
+  </si>
+  <si>
+    <t>Hardware - Firewall Appliance and Server Rack</t>
+  </si>
+  <si>
+    <t>Professional Services - Technical Consulting</t>
+  </si>
+  <si>
+    <t>Professional Services - System Integration and Support</t>
+  </si>
+  <si>
     <t>Hardware - IT Equipment</t>
   </si>
   <si>
-    <t>Software License - Database Management System</t>
-  </si>
-  <si>
-    <t>Hardware - Firewall Appliance and Server Rack</t>
-  </si>
-  <si>
-    <t>Technical Consulting Services</t>
-  </si>
-  <si>
-    <t>System Integration Services - Annual Contract</t>
+    <t>Hardware - Storage Array</t>
   </si>
   <si>
     <t>Hardware - Network Switch</t>
   </si>
   <si>
-    <t>Professional Services - Technical Consulting</t>
+    <t>Professional Services - Consulting</t>
   </si>
   <si>
     <t>Non-taxable</t>
@@ -721,7 +802,7 @@
     <t>MPU</t>
   </si>
   <si>
-    <t>Rate Difference</t>
+    <t>Wrong Rate</t>
   </si>
   <si>
     <t>No Refund</t>
@@ -730,22 +811,25 @@
     <t>WAC 458-20-224</t>
   </si>
   <si>
-    <t>RCW 82.12.020, WAC 458-20-15502</t>
-  </si>
-  <si>
-    <t>WAC 458-20-178</t>
+    <t>RCW 82.04.050</t>
+  </si>
+  <si>
+    <t>WAC 458-20-145</t>
   </si>
   <si>
     <t>WAC 458-20-13501</t>
   </si>
   <si>
-    <t>WAC 458-20-189</t>
-  </si>
-  <si>
-    <t>RCW 82.12.02565</t>
-  </si>
-  <si>
-    <t>RCW 82.12.020</t>
+    <t>WAC 458-20-155</t>
+  </si>
+  <si>
+    <t>RCW 82.08.020, WAC 458-20-15502</t>
+  </si>
+  <si>
+    <t>RCW 82.08.020</t>
+  </si>
+  <si>
+    <t>RCW 82.08.020, RCW 82.12.020</t>
   </si>
   <si>
     <t>90%</t>
@@ -817,67 +901,94 @@
     <t>$1,223.23</t>
   </si>
   <si>
-    <t>Professional services such as managed IT services, training, and consulting are generally non-taxable under Washington State law as they primarily involve human effort. No sales tax was charged, aligning with the non-taxable nature of these services.</t>
-  </si>
-  <si>
-    <t>The services provided, including managed services and technical consulting, are non-taxable as they are classified as professional services. No sales tax was charged, which is consistent with the non-taxable status of these services.</t>
-  </si>
-  <si>
-    <t>Software subscriptions can qualify for a Multiple Points of Use (MPU) exemption if used across multiple locations. However, since no tax was charged, there is no refund applicable. The classification aligns with typical software license treatment.</t>
-  </si>
-  <si>
-    <t>Enterprise software licenses can qualify for MPU if used across multiple locations. No tax was charged, so no refund is applicable. This aligns with the typical treatment of enterprise software licenses under MPU.</t>
-  </si>
-  <si>
-    <t>IT equipment is classified as tangible personal property and is taxable in Washington. Since no tax was charged, this transaction should have been taxed, but no refund is applicable. This is consistent with the treatment of tangible personal property.</t>
-  </si>
-  <si>
-    <t>The transaction involves tangible personal property (IT equipment) which is taxable in Washington State. Since no tax was charged, there is no basis for a refund. According to WAC 458-20-13501, use tax applies to tangible personal property used in Washington if retail sales tax was not paid.</t>
-  </si>
-  <si>
-    <t>The transaction involves IT services, which are generally non-taxable as they primarily involve human effort. Since no tax was charged, there is no refund applicable. WAC 458-20-189 provides exemptions for certain services.</t>
-  </si>
-  <si>
-    <t>The transaction involves a software license, which may qualify for a Multiple Points of Use (MPU) exemption if used in multiple locations. However, since no tax was charged, there is no refund applicable. RCW 82.12.02565 provides exemptions for software licenses under certain conditions.</t>
-  </si>
-  <si>
-    <t>The transaction involves a software license for a database management system, which may qualify for a Multiple Points of Use (MPU) exemption. However, since no tax was charged, there is no refund applicable. RCW 82.12.02565 provides exemptions for software licenses under certain conditions.</t>
-  </si>
-  <si>
-    <t>The transaction involves tangible personal property (firewall appliance and server rack), which is taxable in Washington State. Since no tax was charged, there is no basis for a refund. According to WAC 458-20-13501, use tax applies to tangible personal property used in Washington if retail sales tax was not paid.</t>
-  </si>
-  <si>
-    <t>Technical consulting services are generally considered professional services, which are not subject to retail sales or use tax in Washington State. Since no tax was charged, there is no refund amount applicable.</t>
-  </si>
-  <si>
-    <t>System integration services are classified as professional services, which are not subject to retail sales or use tax in Washington State. Since no tax was charged, there is no refund amount applicable.</t>
-  </si>
-  <si>
-    <t>Software licenses may qualify for a Multiple Points of Use (MPU) exemption if used across multiple locations. However, since no tax was charged, there is no refund amount applicable.</t>
-  </si>
-  <si>
-    <t>IT equipment is tangible personal property and is subject to use tax in Washington State. Since no tax was charged, and there is no indication of an out-of-state shipment, no refund is applicable.</t>
-  </si>
-  <si>
-    <t>Network switches are tangible personal property and are subject to use tax in Washington if no sales tax was charged. Since the product is used in Washington, it is taxable under WAC 458-20-13501. No refund is applicable as the transaction is correctly taxed.</t>
-  </si>
-  <si>
-    <t>Software licenses can qualify for MPU if used across multiple locations. However, since no tax was charged, the transaction is not eligible for a refund. The legal basis for MPU is RCW 82.12.020 and WAC 458-20-15502.</t>
-  </si>
-  <si>
-    <t>Professional services such as consulting are not subject to sales or use tax in Washington. Therefore, the transaction is correctly non-taxable under WAC 458-20-224. No refund is applicable as no tax was charged.</t>
-  </si>
-  <si>
-    <t>Technical consulting services are not subject to sales or use tax in Washington. The transaction is correctly non-taxable under WAC 458-20-224. No refund is applicable as no tax was charged.</t>
-  </si>
-  <si>
-    <t>IT equipment is tangible personal property and is subject to use tax in Washington if no sales tax was charged. Since the product is used in Washington, it is taxable under WAC 458-20-13501. No refund is applicable as the transaction is correctly taxed.</t>
+    <t>$36,325.67</t>
+  </si>
+  <si>
+    <t>$103,902.92</t>
+  </si>
+  <si>
+    <t>$58,344.44</t>
+  </si>
+  <si>
+    <t>Professional services such as managed IT services, training, and consulting are generally not subject to retail sales tax in Washington State as they are primarily human effort. Therefore, the tax remitted should be refunded as the services are non-taxable.</t>
+  </si>
+  <si>
+    <t>The services provided are classified as professional services, which are not subject to retail sales tax in Washington State. The tax remitted should be refunded as these services are non-taxable.</t>
+  </si>
+  <si>
+    <t>The transaction involves a software subscription, which qualifies for the Multiple Points of Use (MPU) exemption as it can be used across multiple locations. The refund is calculated as 80% of the tax remitted.</t>
+  </si>
+  <si>
+    <t>The transaction involves enterprise software licenses, which qualify for the MPU exemption as they can be used across multiple locations. The refund is calculated as 80% of the tax remitted.</t>
+  </si>
+  <si>
+    <t>The transaction involves tangible personal property, which is taxable. However, the tax was charged at an incorrect rate. The refund is based on the difference between the charged rate and the correct rate.</t>
+  </si>
+  <si>
+    <t>The transaction involves tangible personal property (firewall appliances and UPS systems) which is taxable in Washington. The tax was charged at a higher rate than the correct rate for Spokane, WA. Therefore, the refund is based on the 'Wrong Rate' due to overcharge.</t>
+  </si>
+  <si>
+    <t>The transaction involves IT services, which are generally non-taxable in Washington unless they involve tangible personal property. No tangible personal property is indicated, so the refund is based on the 'Non-taxable' status of the services.</t>
+  </si>
+  <si>
+    <t>The transaction involves software licenses, which can qualify for MPU if used at multiple locations. Given the nature of the product and the vendor, MPU is applicable. The refund is 80% of the tax amount remitted.</t>
+  </si>
+  <si>
+    <t>The transaction involves software licenses, which can qualify for MPU if used at multiple locations. The nature of the products suggests multiple points of use, thus qualifying for MPU. The refund is 80% of the tax amount remitted.</t>
+  </si>
+  <si>
+    <t>The transaction involves tangible personal property, which is taxable in Washington. The tax was charged at a higher rate than the correct rate for Yakima, WA. Therefore, the refund is based on the 'Wrong Rate' due to overcharge.</t>
+  </si>
+  <si>
+    <t>Technical consulting services are generally considered professional services and are not subject to retail sales tax in Washington State as per WAC 458-20-224. Since no tax was charged, the correct tax due is $826.97, which should be refunded as the service is non-taxable.</t>
+  </si>
+  <si>
+    <t>System integration and support services are classified as professional services and are not subject to retail sales tax under WAC 458-20-224. The tax remitted should be refunded as these services are non-taxable.</t>
+  </si>
+  <si>
+    <t>Software licenses can qualify for MPU if used at multiple locations. Under RCW 82.08.020 and WAC 458-20-15502, the tax can be refunded at 80% if the software is used in multiple jurisdictions. The estimated refund is 80% of the tax remitted.</t>
+  </si>
+  <si>
+    <t>IT equipment is tangible personal property and is subject to retail sales tax in Washington State as per RCW 82.08.020. Since the tax was not charged but should have been, there is no refund applicable.</t>
+  </si>
+  <si>
+    <t>The tax rate applied was higher than the correct rate for Moses Lake, WA. Under RCW 82.08.020, the difference due to the overcharge is refundable. The refund amount is the difference between the charged and correct tax due.</t>
+  </si>
+  <si>
+    <t>The product is a network switch, classified as tangible personal property, which is taxable in Washington. The tax was charged at a higher rate than the correct rate for Wenatchee, WA. Therefore, the refund is based on the overcharge due to the wrong rate.</t>
+  </si>
+  <si>
+    <t>The transaction involves a software license, which qualifies for the MPU exemption as it is likely used at multiple locations. The tax was not charged, but the tax remitted suggests a potential refund based on MPU rules.</t>
+  </si>
+  <si>
+    <t>The services provided are professional services, which are generally non-taxable in Washington. The tax remitted indicates a refund is due for the full amount.</t>
+  </si>
+  <si>
+    <t>The transaction involves technical consulting services, which are non-taxable in Washington. The tax remitted should be refunded in full.</t>
+  </si>
+  <si>
+    <t>The product is IT equipment, classified as tangible personal property, which is taxable in Washington. No tax was charged, and the correct tax was remitted, so no refund is applicable.</t>
+  </si>
+  <si>
+    <t>The transaction involves tangible personal property (hardware) shipped to Seattle, WA. According to WAC 458-20-13501, tangible personal property is subject to retail sales tax in Washington. Since no tax was charged, there is no basis for a refund.</t>
+  </si>
+  <si>
+    <t>The transaction involves a software license, which qualifies for the Multiple Points of Use (MPU) exemption under Washington tax law. The tax remitted was $45,407.09, and 80% of this amount is refundable under the MPU basis. This aligns with historical patterns for software licenses.</t>
+  </si>
+  <si>
+    <t>Professional services, such as consulting and training, are generally not subject to retail sales tax in Washington as they primarily involve human effort. Therefore, the tax remitted is fully refundable.</t>
+  </si>
+  <si>
+    <t>Consulting services are not subject to retail sales tax in Washington as they involve primarily human effort. The tax remitted is fully refundable under this basis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -930,11 +1041,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,22 +1438,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I2">
         <v>311969</v>
@@ -1359,19 +1471,19 @@
         <v>10.25</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="R2" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S2">
         <v>10.25</v>
@@ -1383,25 +1495,25 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="W2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="X2" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Y2" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Z2" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AA2" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="AB2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1409,22 +1521,22 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I3">
         <v>123883</v>
@@ -1442,19 +1554,19 @@
         <v>10.25</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Q3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R3" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S3">
         <v>10.25</v>
@@ -1466,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="W3" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="X3" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Y3" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Z3" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AA3" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AB3" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1492,22 +1604,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I4">
         <v>111089</v>
@@ -1525,19 +1637,19 @@
         <v>10.25</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O4" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="Q4" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="R4" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S4">
         <v>10.25</v>
@@ -1549,25 +1661,25 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="W4" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="X4" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Y4" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Z4" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="AA4" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="AB4" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1575,22 +1687,22 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I5">
         <v>1111390</v>
@@ -1608,19 +1720,19 @@
         <v>10.25</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="Q5" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="R5" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S5">
         <v>10.25</v>
@@ -1632,25 +1744,25 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="W5" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="X5" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Y5" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Z5" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="AA5" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="AB5" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1658,19 +1770,19 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>210801</v>
@@ -1688,19 +1800,19 @@
         <v>10.25</v>
       </c>
       <c r="N6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="Q6" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="R6" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="S6">
         <v>8.4</v>
@@ -1712,25 +1824,25 @@
         <v>3899.82</v>
       </c>
       <c r="V6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="W6" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="X6" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="Y6" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Z6" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="AA6" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="AB6" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1738,22 +1850,22 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I7">
         <v>117391</v>
@@ -1771,19 +1883,19 @@
         <v>10.25</v>
       </c>
       <c r="N7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="Q7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="R7" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="S7">
         <v>8.9</v>
@@ -1795,25 +1907,25 @@
         <v>1584.78</v>
       </c>
       <c r="V7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="W7" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="X7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="Y7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="Z7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AA7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="AB7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1821,22 +1933,22 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="I8">
         <v>239171</v>
@@ -1854,19 +1966,19 @@
         <v>10.25</v>
       </c>
       <c r="N8" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O8" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="Q8" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="R8" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S8">
         <v>10.25</v>
@@ -1878,25 +1990,25 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="W8" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="X8" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Y8" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="Z8" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="AA8" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AB8" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1904,22 +2016,22 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I9">
         <v>965531</v>
@@ -1937,19 +2049,19 @@
         <v>10.25</v>
       </c>
       <c r="N9" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O9" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q9" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="R9" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S9">
         <v>10.25</v>
@@ -1961,25 +2073,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="W9" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="X9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Y9" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Z9" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="AA9" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AB9" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1987,22 +2099,22 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="I10">
         <v>176967</v>
@@ -2020,19 +2132,19 @@
         <v>10.25</v>
       </c>
       <c r="N10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O10" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="Q10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="R10" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S10">
         <v>10.25</v>
@@ -2044,25 +2156,25 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="W10" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="X10" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Y10" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Z10" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="AA10" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AB10" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2070,19 +2182,19 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I11">
         <v>56444</v>
@@ -2100,19 +2212,19 @@
         <v>10.25</v>
       </c>
       <c r="N11" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="O11" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Q11" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="R11" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="S11">
         <v>8.300000000000001</v>
@@ -2124,25 +2236,25 @@
         <v>1100.66</v>
       </c>
       <c r="V11" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="W11" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="X11" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="Y11" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="Z11" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AA11" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="AB11" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2150,19 +2262,19 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I12">
         <v>8068</v>
@@ -2180,19 +2292,19 @@
         <v>10.25</v>
       </c>
       <c r="N12" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="O12" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Q12" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="R12" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S12">
         <v>10.25</v>
@@ -2204,25 +2316,25 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="W12" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X12" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Y12" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Z12" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AA12" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AB12" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2230,19 +2342,19 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I13">
         <v>677742</v>
@@ -2260,19 +2372,19 @@
         <v>10.25</v>
       </c>
       <c r="N13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="Q13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="R13" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S13">
         <v>10.25</v>
@@ -2284,25 +2396,25 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="W13" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="X13" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Y13" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Z13" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AA13" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AB13" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2310,16 +2422,16 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I14">
         <v>712792</v>
@@ -2337,19 +2449,19 @@
         <v>10.25</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Q14" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="R14" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S14">
         <v>10.25</v>
@@ -2361,25 +2473,25 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Y14" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="Z14" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="AA14" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="AB14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2387,19 +2499,19 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="I15">
         <v>727008</v>
@@ -2417,19 +2529,19 @@
         <v>10.25</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="Q15" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="R15" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S15">
         <v>10.25</v>
@@ -2441,25 +2553,25 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="X15" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="Y15" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Z15" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="AA15" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AB15" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2467,19 +2579,19 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I16">
         <v>256732</v>
@@ -2497,19 +2609,19 @@
         <v>10.25</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Q16" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="R16" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="S16">
         <v>8.199999999999999</v>
@@ -2521,25 +2633,25 @@
         <v>5263.01</v>
       </c>
       <c r="V16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="X16" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="Y16" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Z16" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="AA16" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AB16" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2547,19 +2659,19 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I17">
         <v>28602</v>
@@ -2577,19 +2689,19 @@
         <v>10.25</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Q17" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="R17" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="S17">
         <v>8.4</v>
@@ -2601,25 +2713,25 @@
         <v>529.13</v>
       </c>
       <c r="V17" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="W17" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="X17" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="Y17" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Z17" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AA17" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AB17" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2627,19 +2739,19 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I18">
         <v>570840</v>
@@ -2657,19 +2769,19 @@
         <v>10.25</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="Q18" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="R18" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S18">
         <v>10.25</v>
@@ -2681,25 +2793,25 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="W18" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="X18" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Y18" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="Z18" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="AA18" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="AB18" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2707,19 +2819,19 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I19">
         <v>335268</v>
@@ -2737,19 +2849,19 @@
         <v>10.25</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Q19" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="R19" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S19">
         <v>10.25</v>
@@ -2761,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="W19" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X19" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Y19" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Z19" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AA19" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="AB19" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2787,19 +2899,19 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I20">
         <v>11934</v>
@@ -2817,19 +2929,19 @@
         <v>10.25</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="Q20" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="R20" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S20">
         <v>10.25</v>
@@ -2841,25 +2953,25 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="W20" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X20" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Y20" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Z20" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AA20" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="AB20" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2867,16 +2979,16 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I21">
         <v>343958</v>
@@ -2894,19 +3006,19 @@
         <v>10.25</v>
       </c>
       <c r="N21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O21" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="Q21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="R21" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="S21">
         <v>10.25</v>
@@ -2918,25 +3030,315 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="W21" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="X21" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45423</v>
+      </c>
+      <c r="I22">
+        <v>932805</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>95612.50999999999</v>
+      </c>
+      <c r="L22">
+        <v>932805</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q22" t="s">
         <v>236</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="R22" t="s">
         <v>240</v>
       </c>
-      <c r="Z21" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="S22">
+        <v>10.25</v>
+      </c>
+      <c r="T22">
+        <v>95612.50999999999</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>172</v>
+      </c>
+      <c r="W22" t="s">
+        <v>256</v>
+      </c>
+      <c r="X22" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45410</v>
+      </c>
+      <c r="I23">
+        <v>442996</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>45407.09</v>
+      </c>
+      <c r="L23">
+        <v>442996</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>237</v>
+      </c>
+      <c r="R23" t="s">
+        <v>240</v>
+      </c>
+      <c r="S23">
+        <v>10.25</v>
+      </c>
+      <c r="T23">
+        <v>45407.09</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>173</v>
+      </c>
+      <c r="W23" t="s">
+        <v>248</v>
+      </c>
+      <c r="X23" t="s">
         <v>261</v>
       </c>
-      <c r="AB21" t="s">
-        <v>285</v>
+      <c r="Y23" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44971</v>
+      </c>
+      <c r="I24">
+        <v>1013687</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>103902.92</v>
+      </c>
+      <c r="L24">
+        <v>1013687</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>238</v>
+      </c>
+      <c r="R24" t="s">
+        <v>240</v>
+      </c>
+      <c r="S24">
+        <v>10.25</v>
+      </c>
+      <c r="T24">
+        <v>103902.92</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>174</v>
+      </c>
+      <c r="W24" t="s">
+        <v>246</v>
+      </c>
+      <c r="X24" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45478</v>
+      </c>
+      <c r="I25">
+        <v>569214</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>58344.44</v>
+      </c>
+      <c r="L25">
+        <v>569214</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>239</v>
+      </c>
+      <c r="R25" t="s">
+        <v>240</v>
+      </c>
+      <c r="S25">
+        <v>10.25</v>
+      </c>
+      <c r="T25">
+        <v>58344.44</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>175</v>
+      </c>
+      <c r="W25" t="s">
+        <v>259</v>
+      </c>
+      <c r="X25" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
